--- a/PeerXP.xlsx
+++ b/PeerXP.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6E81D6-18DD-470F-AD30-AD252F2AB26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AD18A-E572-4C7A-ABE0-1E98A10AD5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{18A6F039-6D26-4AD5-89B0-14EF79A45327}"/>
   </bookViews>
   <sheets>
     <sheet name="from_place" sheetId="1" r:id="rId1"/>
     <sheet name="to_place" sheetId="2" r:id="rId2"/>
-    <sheet name="test case" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>To</t>
   </si>
@@ -40,96 +39,13 @@
   <si>
     <t xml:space="preserve">New Delhi </t>
   </si>
-  <si>
-    <t>S.no</t>
-  </si>
-  <si>
-    <t>Test case no</t>
-  </si>
-  <si>
-    <t>Pre-condition</t>
-  </si>
-  <si>
-    <t>Test Procedure</t>
-  </si>
-  <si>
-    <t>Expected results</t>
-  </si>
-  <si>
-    <t>Actual results</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Browser should be installed</t>
-  </si>
-  <si>
-    <t>FLIGHT-001</t>
-  </si>
-  <si>
-    <t>Open Browser and url https://www.yatra.com</t>
-  </si>
-  <si>
-    <t>FLIGHT-002</t>
-  </si>
-  <si>
-    <t>Search flight page should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. Search flight page Should be opened.
-2. Top left corner should display yatra logo and top right corner should display "My account", "Support" , "Recent search" and "offers" should be displayed.
-3. The next navigation bar should display fields for "from", "to", "date" values from the selected options , "return", "traveller class" and "search again" button should be displayed.
-4. Check the application whether it is showing the availability of the flights with date and timings of the departure.
-4. Filter navigation bar should display filter fields for "stops", "price", "depart time", "airlines", "aircarft" and "more filter" .
-5. Horizontal display of dates with left and right arrow button should be displayed with calendar icon.
-6. Sort by bar should be displayed with "depart", "arrive", "duration" and "price per adult".
-7. Below "sort by" bar ,from place time, to place time , duration and fare price along with "view fare" button should be displayed.
-8. An image showing "No Date Change Fee" should be displayed.
-9. Next block displays different depart and arrive time with "view fare" button.
-10. Right corner displays "Today's Offer"  with coupon code" EMIHDFC", "FLYFESTIVE" with discounts percent.</t>
-  </si>
-  <si>
-    <t>Yatra home page should be displayed with the following fields
-1. Yatra logo on the top left corner should be displayed. 
-2. Top navigation should display flights, hotels, villas &amp; stays, buses, holidays, cabs and +more link should be displayed
-3.My Account link,Support link, Offers link, Yatra for Business link should be displayed in the top left corner
-4. In the left side a small container  having details like from and to field, date field,travell class field ,a check box for non stop flights and two buttons for check your refund and search flights should be displayed.
-5. From down drop should show the available departure cities.
-6. To down drop should show the available arrival cities.
-6. Only one city Shoud be selected in "From" and "To" field.
-7. Date should be in the Format day, first 3 letters of the month, last 2 digit of year.
-8.
-5. Three images Covid Connect, click here to web check-in and change in planes? should be displayed
-6. In the right side recent search details  like new delhi to bangalore,mumbai to chennai, bangalore to new delhi should be displayed with next arrow link
-7. Yatra specials should be displayed showing discounts for domestic flights, international flights with view all link.
-8. Travel talk with automatic sliding images like should be displayed.
-9. Popular domestic flight routes, next arrow link with price details should be diaplyed.
-10. Popular international flight routes, next arrow link with price details should be diaplyed.
-11. Image having words like travelling made safe with covid-19 should be displayed.
-12. A container having words Download Yatra from your phone!, text field  to enter mobile number and a continue button should be displayed .
-13. A cotainer having words "Why book with Yatra.com?" and "Book Flights, Hotels, Trains, Buses, Cruise and Holiday Packages" with "Read more" link should be displayed.
-14. Image having "one-stop payment solution in your POCKETS" should be displayed.
-15.  Company useful links like "company information", "investor relations", "product offerings" and "more" links should be displayed.
-16. "travel guru", "yatra exotic routes" and "tsi yatra" should be displayed under our family.
-16. "visa", "rupay", "net banking" hould be displayed under security &amp; payment.
-17. Under keep in touch ,facebook, instagram, twitter, youtube icon should be displayed.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,16 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +440,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,85 +464,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A510FECE-E57A-4C7A-86C5-194C43834326}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>